--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,58 +43,58 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>apart</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
@@ -106,21 +106,15 @@
     <t>item</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -130,21 +124,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -154,10 +148,10 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>fun</t>
@@ -524,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,38 +587,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>52</v>
-      </c>
-      <c r="M3">
-        <v>52</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -635,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.78125</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -693,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7741935483870968</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.46875</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.4202898550724637</v>
+        <v>0.46875</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.3450819672131147</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L8">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M8">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6418918918918919</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>0.2955523672883787</v>
@@ -964,16 +958,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.2302904564315353</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L10">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M10">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +987,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5966386554621849</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.1807228915662651</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>136</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,38 +1037,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5370370370370371</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="L12">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>29</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12">
-        <v>0.1651376146788991</v>
-      </c>
-      <c r="L12">
-        <v>54</v>
-      </c>
-      <c r="M12">
-        <v>54</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>273</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1087,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5272727272727272</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.08501314636283962</v>
+        <v>0.07274320771253287</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1044</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4782608695652174</v>
+        <v>0.4405797101449275</v>
       </c>
       <c r="C14">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>0.03374432186891629</v>
@@ -1193,13 +1187,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4337349397590362</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4315789473684211</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1245,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4015748031496063</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1263,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1271,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3707865168539326</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1289,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1297,13 +1291,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3168316831683168</v>
+        <v>0.2890625</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1315,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1323,13 +1317,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3127962085308057</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1341,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1349,13 +1343,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3125</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1375,13 +1369,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2474226804123711</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1393,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1401,13 +1395,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1899109792284867</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C23">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1419,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1427,13 +1421,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1702898550724638</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1445,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1453,13 +1447,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1613924050632911</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1471,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>265</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1479,13 +1473,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1495327102803738</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1497,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>182</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1505,13 +1499,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1455696202531646</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1523,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1531,25 +1525,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1387665198237885</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>391</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1557,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1203007518796992</v>
+        <v>0.05601317957166392</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0.03</v>
@@ -1575,59 +1569,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.1091954022988506</v>
-      </c>
-      <c r="C30">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>38</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.05930807248764415</v>
-      </c>
-      <c r="C31">
-        <v>36</v>
-      </c>
-      <c r="D31">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>0.03</v>
-      </c>
-      <c r="F31">
-        <v>0.97</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
